--- a/results/cps_res_presentation.xlsx
+++ b/results/cps_res_presentation.xlsx
@@ -425,6 +425,11 @@
           <t>33607.1805763609</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1348450909741667</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -457,6 +462,11 @@
           <t>33686.0111884192</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1347339093216366</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -489,6 +499,11 @@
           <t>33615.5693366872</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1348951287810318</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -521,6 +536,11 @@
           <t>31962.0718938016</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1060587718397631</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -553,6 +573,11 @@
           <t>2404325889.0473</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5787733877618e+31</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>2410918011.79466</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.56716093426476e+31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -617,6 +647,11 @@
           <t>2400645691.99728</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.57012706218874e+31</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -649,6 +684,11 @@
           <t>2586428611.78139</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.59709000545821e+31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -681,6 +721,11 @@
           <t>49024.0530333112</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4971040554279611</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>49093.2028765215</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4960469480837069</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -745,6 +795,11 @@
           <t>48988.350023946</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4964808779946628</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -777,6 +832,11 @@
           <t>50850.0201226662</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4974501070722780</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -809,6 +869,11 @@
           <t>0.00787676321385017</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-0.00253246606206582</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -841,6 +906,11 @@
           <t>0.00515816463493392</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.00194359231470616</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -873,6 +943,11 @@
           <t>0.00934725088382764</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.000857639510092347</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -903,6 +978,11 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>-0.0672238982549638</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-0.0107414086452703</t>
         </is>
       </c>
     </row>

--- a/results/cps_res_presentation.xlsx
+++ b/results/cps_res_presentation.xlsx
@@ -427,7 +427,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1348450909741667</t>
+          <t>34741.1676713254</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1347339093216366</t>
+          <t>35060.5714357211</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1348951287810318</t>
+          <t>34756.9783236284</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1060587718397631</t>
+          <t>36900.7647382699</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.5787733877618e+31</t>
+          <t>2709944633.76313</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.56716093426476e+31</t>
+          <t>2730284434.0318</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.57012706218874e+31</t>
+          <t>2709118990.40014</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.59709000545821e+31</t>
+          <t>3250277079.95226</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4971040554279611</t>
+          <t>52049.4184585686</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4960469480837069</t>
+          <t>52240.5274797851</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4964808779946628</t>
+          <t>52038.5612496054</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4974501070722780</t>
+          <t>57003.2427656151</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.00253246606206582</t>
+          <t>0.175760729951694</t>
         </is>
       </c>
     </row>
@@ -908,7 +908,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.00194359231470616</t>
+          <t>0.169626808912669</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.000857639510092347</t>
+          <t>0.17603310120291</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-0.0107414086452703</t>
+          <t>0.0113635737112594</t>
         </is>
       </c>
     </row>
